--- a/public/files/import_from_excel_format(users).xlsx
+++ b/public/files/import_from_excel_format(users).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>NAME</t>
   </si>
@@ -28,9 +28,6 @@
     <t>CONTACT</t>
   </si>
   <si>
-    <t>DOB</t>
-  </si>
-  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
   </si>
   <si>
     <t>ANNUAL_SALARY</t>
-  </si>
-  <si>
-    <t>START_DATE</t>
   </si>
   <si>
     <t>USER_TYPE</t>
@@ -200,9 +194,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -285,8 +276,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -589,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,15 +591,13 @@
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -618,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
@@ -630,23 +617,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -656,341 +639,287 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7">
+        <v>27</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="10">
-        <v>33743</v>
-      </c>
-      <c r="H2" s="7">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="7">
         <v>27</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="10">
-        <v>43540</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="10">
-        <v>33437</v>
-      </c>
-      <c r="H3" s="7">
-        <v>27</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="10">
-        <v>43540</v>
-      </c>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="7">
+        <v>27</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="7">
+        <v>27</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="7">
+      <c r="G6" s="7">
         <v>27</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="I6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="7">
+        <v>27</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="7">
+        <v>27</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="10">
-        <v>43540</v>
-      </c>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="10">
-        <v>32073</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="7">
         <v>27</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="10">
-        <v>43540</v>
-      </c>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="10">
-        <v>35732</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="I9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="7">
         <v>27</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="10">
-        <v>43540</v>
-      </c>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="10">
-        <v>33482</v>
-      </c>
-      <c r="H7" s="7">
-        <v>27</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="10">
-        <v>43540</v>
-      </c>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="10">
-        <v>35330</v>
-      </c>
-      <c r="H8" s="7">
-        <v>27</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="10">
-        <v>43540</v>
-      </c>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="10">
-        <v>35500</v>
-      </c>
-      <c r="H9" s="7">
-        <v>27</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="10">
-        <v>43540</v>
-      </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="10">
-        <v>30963</v>
-      </c>
-      <c r="H10" s="7">
-        <v>27</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="10">
-        <v>43540</v>
-      </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
